--- a/all.xlsx
+++ b/all.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC09B3-219A-5549-A22F-00F67EED2CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60735B53-A48D-B041-A06B-F2F584A08154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,9 @@
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="J4" s="29">
+        <v>1</v>
+      </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29">
